--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\RTMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/rtmf/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D32B62-C10D-174E-B632-83FC1468AA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2250" windowWidth="23595" windowHeight="14160"/>
+    <workbookView xWindow="3940" yWindow="2160" windowWidth="23600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RTMF-passengers" sheetId="2" r:id="rId2"/>
     <sheet name="RTMF-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,6 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,22 +530,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="7">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,80 +556,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -633,7 +638,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -642,7 +647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -658,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -666,14 +671,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -699,7 +704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +732,7 @@
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,7 +760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -783,7 +788,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,7 +816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,7 +844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,7 +872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -882,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -892,14 +897,14 @@
       <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -925,7 +930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,7 +986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/al/trans/rtmf/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\AL\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D32B62-C10D-174E-B632-83FC1468AA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE50B9F-ADDC-4991-9130-5082FA75D121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3940" yWindow="2160" windowWidth="23600" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2565" yWindow="3720" windowWidth="13980" windowHeight="12390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>the following mode shifts:</t>
+  </si>
+  <si>
+    <t>Alabama</t>
   </si>
 </sst>
 </file>
@@ -533,22 +536,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
       <c r="C1" s="7">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -556,80 +562,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -638,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -647,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -669,16 +675,18 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -704,7 +712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -712,13 +720,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>0.33</v>
+        <v>0.05</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -728,11 +736,10 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6">
-        <f>1-SUM(B2:G2)</f>
-        <v>0.33999999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -760,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -788,7 +795,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -816,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -844,7 +851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -872,7 +879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -893,18 +900,18 @@
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -930,7 +937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -958,7 +965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -986,7 +993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1042,7 +1049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1070,7 +1077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1098,7 +1105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\AL\trans\RTMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE50B9F-ADDC-4991-9130-5082FA75D121}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2565" yWindow="3720" windowWidth="13980" windowHeight="12390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="2250" windowWidth="23595" windowHeight="14160"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RTMF-passengers" sheetId="2" r:id="rId2"/>
     <sheet name="RTMF-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -143,14 +142,11 @@
   <si>
     <t>the following mode shifts:</t>
   </si>
-  <si>
-    <t>Alabama</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -211,7 +207,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -219,7 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,28 +528,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="7">
-        <v>44319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -562,80 +551,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -644,7 +633,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -653,7 +642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -669,24 +658,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -712,7 +699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -720,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="C2" s="4">
-        <v>0.15</v>
+        <v>0.33</v>
       </c>
       <c r="D2" s="4">
         <v>0</v>
       </c>
       <c r="E2" s="4">
-        <v>0.05</v>
+        <v>0.33</v>
       </c>
       <c r="F2" s="4">
         <v>0</v>
@@ -736,10 +723,11 @@
       </c>
       <c r="H2" s="4"/>
       <c r="I2" s="6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <f>1-SUM(B2:G2)</f>
+        <v>0.33999999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -767,7 +755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -795,7 +783,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -823,7 +811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,7 +867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -894,24 +882,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -937,7 +925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -965,7 +953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -993,7 +981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1021,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1049,7 +1037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1077,7 +1065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1105,7 +1093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\RTMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aaggarwal/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/AL/trans/RTMF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4B0B655-A5A0-2143-A565-0C75D0598349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3930" yWindow="2250" windowWidth="23595" windowHeight="14160"/>
+    <workbookView xWindow="6300" yWindow="500" windowWidth="22500" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="RTMF-passengers" sheetId="2" r:id="rId2"/>
     <sheet name="RTMF-freight" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -142,11 +143,14 @@
   <si>
     <t>the following mode shifts:</t>
   </si>
+  <si>
+    <t>Alabama</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -207,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -215,6 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,22 +533,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.73046875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="7">
+        <v>44631</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -551,80 +562,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
@@ -633,7 +644,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
@@ -642,7 +653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
@@ -658,7 +669,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
@@ -666,14 +677,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -699,7 +710,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -727,7 +738,7 @@
         <v>0.33999999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -755,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -769,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="4">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -780,10 +791,10 @@
       <c r="H4" s="4"/>
       <c r="I4" s="6">
         <f t="shared" si="0"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -811,7 +822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -839,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -867,7 +878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -882,24 +893,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.3984375" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" customWidth="1"/>
-    <col min="8" max="8" width="9.1328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="7" max="7" width="11.5" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -925,7 +934,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -953,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1037,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\AL\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF1F323B-1FA0-4E89-AD48-2CCFDCA8473E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{090F52D1-FA34-40C1-9F47-BA16047A9233}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="720" windowWidth="13920" windowHeight="16590" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12720" yWindow="285" windowWidth="15915" windowHeight="16410" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -875,7 +875,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -903,7 +903,7 @@
         <v>91</v>
       </c>
       <c r="C1" s="5">
-        <v>44873</v>
+        <v>44944</v>
       </c>
       <c r="E1" s="7" t="s">
         <v>81</v>
@@ -1392,7 +1392,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDE11CAF-345E-44DE-959F-9F9638946419}">
   <dimension ref="A1:J301"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1913,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2105,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2297,7 +2299,7 @@
         <v>6</v>
       </c>
       <c r="C29">
-        <v>3409.5382097277702</v>
+        <v>450</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2306,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1123.4017902722201</v>
+        <v>27</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2489,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="C35">
-        <v>189.41878942931999</v>
+        <v>72</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -2498,7 +2500,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2681,7 +2683,7 @@
         <v>6</v>
       </c>
       <c r="C41">
-        <v>568.256368287962</v>
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -2690,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>187.23363171203701</v>
+        <v>5</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -2873,7 +2875,7 @@
         <v>6</v>
       </c>
       <c r="C47">
-        <v>189.41878942931999</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -2882,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G47">
         <v>0</v>
@@ -3065,7 +3067,7 @@
         <v>6</v>
       </c>
       <c r="C53">
-        <v>378.837578858641</v>
+        <v>29</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -3074,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>124.82242114135801</v>
+        <v>11</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -3257,7 +3259,7 @@
         <v>6</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D59">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>6</v>
       </c>
       <c r="C83">
-        <v>1515.3503154345599</v>
+        <v>279</v>
       </c>
       <c r="D83">
         <v>0</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>499.28968456543299</v>
+        <v>21</v>
       </c>
       <c r="G83">
         <v>0</v>
@@ -4217,7 +4219,7 @@
         <v>6</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D89">
         <v>0</v>
@@ -4793,7 +4795,7 @@
         <v>6</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D107">
         <v>0</v>
@@ -4985,7 +4987,7 @@
         <v>6</v>
       </c>
       <c r="C113">
-        <v>947.09394714660402</v>
+        <v>166</v>
       </c>
       <c r="D113">
         <v>0</v>
@@ -4994,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>312.05605285339499</v>
+        <v>43</v>
       </c>
       <c r="G113">
         <v>0</v>
@@ -5177,7 +5179,7 @@
         <v>6</v>
       </c>
       <c r="C119">
-        <v>568.256368287962</v>
+        <v>50</v>
       </c>
       <c r="D119">
         <v>0</v>
@@ -5186,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>187.23363171203701</v>
+        <v>5</v>
       </c>
       <c r="G119">
         <v>0</v>
@@ -5368,16 +5370,10 @@
       <c r="B125" t="s">
         <v>6</v>
       </c>
-      <c r="C125">
-        <v>0</v>
-      </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125">
-        <v>0</v>
-      </c>
-      <c r="F125">
         <v>0</v>
       </c>
       <c r="G125">
@@ -5561,7 +5557,7 @@
         <v>6</v>
       </c>
       <c r="C131">
-        <v>189.41878942931999</v>
+        <v>5</v>
       </c>
       <c r="D131">
         <v>0</v>
@@ -5570,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G131">
         <v>0</v>
@@ -5753,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="C137">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D137">
         <v>0</v>
@@ -5762,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
         <v>0</v>
@@ -5945,7 +5941,7 @@
         <v>6</v>
       </c>
       <c r="C143">
-        <v>189.41878942931999</v>
+        <v>32</v>
       </c>
       <c r="D143">
         <v>0</v>
@@ -5954,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G143">
         <v>0</v>
@@ -6521,7 +6517,7 @@
         <v>6</v>
       </c>
       <c r="C161">
-        <v>378.837578858641</v>
+        <v>20</v>
       </c>
       <c r="D161">
         <v>0</v>
@@ -6530,7 +6526,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>124.82242114135801</v>
+        <v>0</v>
       </c>
       <c r="G161">
         <v>0</v>
@@ -7289,7 +7285,7 @@
         <v>6</v>
       </c>
       <c r="C185">
-        <v>568.256368287962</v>
+        <v>190</v>
       </c>
       <c r="D185">
         <v>0</v>
@@ -7298,7 +7294,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>187.23363171203701</v>
+        <v>25</v>
       </c>
       <c r="G185">
         <v>0</v>
@@ -7490,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G191">
         <v>0</v>
@@ -7865,7 +7861,7 @@
         <v>6</v>
       </c>
       <c r="C203">
-        <v>3788.3757885864102</v>
+        <v>835</v>
       </c>
       <c r="D203">
         <v>0</v>
@@ -7874,7 +7870,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1248.22421141358</v>
+        <v>17</v>
       </c>
       <c r="G203">
         <v>0</v>
@@ -8057,7 +8053,7 @@
         <v>6</v>
       </c>
       <c r="C209">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D209">
         <v>0</v>
@@ -8249,7 +8245,7 @@
         <v>6</v>
       </c>
       <c r="C215">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D215">
         <v>0</v>
@@ -8441,7 +8437,7 @@
         <v>6</v>
       </c>
       <c r="C221">
-        <v>189.41878942931999</v>
+        <v>72</v>
       </c>
       <c r="D221">
         <v>0</v>
@@ -8450,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>62.411210570679103</v>
+        <v>1</v>
       </c>
       <c r="G221">
         <v>0</v>
@@ -8633,7 +8629,7 @@
         <v>6</v>
       </c>
       <c r="C227">
-        <v>1894.1878942932001</v>
+        <v>297</v>
       </c>
       <c r="D227">
         <v>0</v>
@@ -8642,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>624.112105706791</v>
+        <v>0</v>
       </c>
       <c r="G227">
         <v>0</v>
@@ -8825,7 +8821,7 @@
         <v>6</v>
       </c>
       <c r="C233">
-        <v>189.41878942931999</v>
+        <v>0</v>
       </c>
       <c r="D233">
         <v>0</v>
@@ -8834,7 +8830,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G233">
         <v>0</v>
@@ -9401,7 +9397,7 @@
         <v>6</v>
       </c>
       <c r="C251">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D251">
         <v>0</v>
@@ -9410,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G251">
         <v>0</v>
@@ -9593,7 +9589,7 @@
         <v>6</v>
       </c>
       <c r="C257">
-        <v>189.41878942931999</v>
+        <v>94</v>
       </c>
       <c r="D257">
         <v>0</v>
@@ -9602,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>62.411210570679103</v>
+        <v>19</v>
       </c>
       <c r="G257">
         <v>0</v>
@@ -9785,7 +9781,7 @@
         <v>6</v>
       </c>
       <c r="C263">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="D263">
         <v>0</v>
@@ -9794,7 +9790,7 @@
         <v>0</v>
       </c>
       <c r="F263">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G263">
         <v>0</v>
@@ -9977,7 +9973,7 @@
         <v>6</v>
       </c>
       <c r="C269">
-        <v>568.256368287962</v>
+        <v>19</v>
       </c>
       <c r="D269">
         <v>0</v>
@@ -9986,7 +9982,7 @@
         <v>0</v>
       </c>
       <c r="F269">
-        <v>187.23363171203701</v>
+        <v>19</v>
       </c>
       <c r="G269">
         <v>0</v>
@@ -10361,7 +10357,7 @@
         <v>6</v>
       </c>
       <c r="C281">
-        <v>378.837578858641</v>
+        <v>40</v>
       </c>
       <c r="D281">
         <v>0</v>
@@ -10370,7 +10366,7 @@
         <v>0</v>
       </c>
       <c r="F281">
-        <v>124.82242114135801</v>
+        <v>2</v>
       </c>
       <c r="G281">
         <v>0</v>
@@ -10553,7 +10549,7 @@
         <v>6</v>
       </c>
       <c r="C287">
-        <v>189.41878942931999</v>
+        <v>4</v>
       </c>
       <c r="D287">
         <v>0</v>
@@ -10562,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="F287">
-        <v>62.411210570679103</v>
+        <v>0</v>
       </c>
       <c r="G287">
         <v>0</v>
@@ -11038,7 +11034,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11369,7 +11365,7 @@
   </sheetPr>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
+++ b/InputData/trans/RTMF/Recipient Transportation Mode Fractions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\trans\RTMF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganMahajan\Documents\eps-us\InputData\trans\RTMF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879C9A3C-65AE-46B7-AAAF-3BEC51FB4A4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2643F14-5F7F-4432-8B4A-9A19F1481256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12870" yWindow="1470" windowWidth="22500" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>RTMF Recipient Transportation Mode Fractions</t>
   </si>
@@ -138,10 +138,16 @@
     <t>goes to a mix of passenger rail and non-motorized/eliminated</t>
   </si>
   <si>
-    <t>goes to a mix of freight rail and freight ships</t>
-  </si>
-  <si>
     <t>the following mode shifts:</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>goes to reduced VMT, representing freight logistics</t>
+  </si>
+  <si>
+    <t>goes to reduced VMT, representing lower demand for coal transport</t>
   </si>
 </sst>
 </file>
@@ -208,12 +214,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -234,9 +238,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -274,7 +278,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -380,7 +384,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -522,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -530,9 +534,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -603,30 +609,26 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-    </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>30</v>
+      <c r="A25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
@@ -635,7 +637,6 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
@@ -644,12 +645,19 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +671,7 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -675,7 +683,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -696,7 +704,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -704,26 +712,25 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>0.33</v>
       </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.33</v>
       </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <f>1-SUM(B2:G2)</f>
         <v>0.33999999999999997</v>
       </c>
@@ -732,26 +739,25 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I7" si="0">1-SUM(B3:G3)</f>
         <v>1</v>
       </c>
@@ -760,26 +766,25 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.25</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>0.75</v>
       </c>
@@ -788,26 +793,25 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -816,26 +820,25 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -844,38 +847,28 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -887,7 +880,7 @@
   <sheetPr>
     <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -899,7 +892,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -920,7 +913,7 @@
       <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -928,26 +921,25 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>0</v>
-      </c>
-      <c r="D2" s="4">
-        <v>0</v>
-      </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="4">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="6">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
         <f>1-SUM(B2:G2)</f>
         <v>1</v>
       </c>
@@ -956,26 +948,25 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
-        <v>0</v>
-      </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="6">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
         <f t="shared" ref="I3:I7" si="0">1-SUM(B3:G3)</f>
         <v>1</v>
       </c>
@@ -984,26 +975,25 @@
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="6">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1012,26 +1002,25 @@
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4">
-        <v>0</v>
-      </c>
-      <c r="D5" s="4">
-        <v>0</v>
-      </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="6">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1040,26 +1029,25 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>0</v>
-      </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="6">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1068,38 +1056,28 @@
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4">
-        <v>0</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="6">
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
